--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Checkout ID(#9)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,13 +42,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>34013[GP500]</t>
+    <t>BETTER GARDEN STEEL GARD DOOR</t>
+  </si>
+  <si>
+    <t>B077RYYX66</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0014</t>
+  </si>
+  <si>
+    <t>P8-05-2[YMLU8789671-6-4-18]</t>
   </si>
 </sst>
 </file>
@@ -419,11 +422,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -472,13 +475,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Checkout ID(#9)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#2)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,16 +42,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>BETTER GARDEN STEEL GARD DOOR</t>
-  </si>
-  <si>
-    <t>B077RYYX66</t>
-  </si>
-  <si>
-    <t>BG-ARCH-0014</t>
-  </si>
-  <si>
-    <t>P8-05-2[YMLU8789671-6-4-18]</t>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>34013[GP500]</t>
   </si>
 </sst>
 </file>
@@ -422,11 +419,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -475,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Checkout ID(#9)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#83)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,16 +42,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>BETTER GARDEN STEEL GARD DOOR</t>
-  </si>
-  <si>
-    <t>B077RYYX66</t>
-  </si>
-  <si>
-    <t>BG-ARCH-0014</t>
-  </si>
-  <si>
-    <t>P8-05-2[YMLU8789671-6-4-18]</t>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -422,11 +419,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -475,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#83)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Checkout ID(#23)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,13 +42,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
+  </si>
+  <si>
+    <t>B077S2CNF4</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0008C</t>
+  </si>
+  <si>
+    <t>P8-08-2[YMLU8789671-6-4-18]</t>
   </si>
 </sst>
 </file>
@@ -419,11 +422,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -472,13 +475,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Checkout ID(#23)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Checkout ID(#86)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,16 +42,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
-  </si>
-  <si>
-    <t>B077S2CNF4</t>
-  </si>
-  <si>
-    <t>BG-ARCH-0008C</t>
-  </si>
-  <si>
-    <t>P8-08-2[YMLU8789671-6-4-18]</t>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -422,11 +425,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -475,13 +478,30 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Checkout ID(#86)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Checkout ID(#84)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>C0000S</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -417,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -485,23 +476,6 @@
       </c>
       <c r="E4">
         <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Checkout ID(#84)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#95)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>C0000S</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -472,9 +475,26 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>111</v>
       </c>
     </row>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#95)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Checkout ID(#96)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>C0000S</t>
-  </si>
-  <si>
-    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -475,26 +472,9 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>111</v>
       </c>
     </row>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#96)</t>
+    <t>Checkout ID(#117)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>111</v>
+        <v>27001</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#117)</t>
+    <t>Checkout ID(#119)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#119)</t>
+    <t>Checkout ID(#122)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>C-0000-XL</t>
-  </si>
-  <si>
-    <t>C0000XL</t>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -472,10 +472,10 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>27001</v>
+        <v>34012</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#122)</t>
+    <t>Checkout ID(#124)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>34012</v>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Checkout ID(#124)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#125)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -416,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -472,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>34012</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#125)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>Checkout ID(#101)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -419,9 +410,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -465,21 +456,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Checkout ID(#101)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#1)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -410,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -456,13 +465,21 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Checkout ID(#141)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,13 +42,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -419,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -469,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -478,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#141)</t>
+    <t>Checkout ID(#147)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA13</t>
+    <t>OA6</t>
   </si>
   <si>
     <t>A0</t>
@@ -417,8 +417,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#147)</t>
+    <t>Checkout ID(#152)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA6</t>
+    <t>OA2</t>
   </si>
   <si>
     <t>A0</t>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#152)</t>
+    <t>Checkout ID(#151)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA2</t>
+    <t>OA3</t>
   </si>
   <si>
     <t>A0</t>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#151)</t>
+    <t>Checkout ID(#157)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA3</t>
+    <t>OA9</t>
   </si>
   <si>
     <t>A0</t>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#157)</t>
+    <t>Checkout ID(#169)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA9</t>
+    <t>OA13</t>
   </si>
   <si>
     <t>A0</t>
@@ -417,8 +417,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#169)</t>
+    <t>Checkout ID(#176)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA13</t>
+    <t>23D7WB</t>
   </si>
   <si>
     <t>A0</t>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#178)</t>
+    <t>Checkout ID(#179)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA9</t>
+    <t>23D7WB</t>
   </si>
   <si>
     <t>A0</t>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#179)</t>
+    <t>Checkout ID(#178)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>23D7WB</t>
+    <t>OA9</t>
   </si>
   <si>
     <t>A0</t>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#178)</t>
+    <t>Checkout ID(#268)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,7 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA9</t>
+    <t>OA2</t>
   </si>
   <si>
     <t>A0</t>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Checkout ID(#268)</t>
+    <t>Checkout ID(#2)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>A0</t>
+    <t>zyu1000</t>
+  </si>
+  <si>
+    <t>A1000</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Checkout ID(#2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Checkout ID(#183)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>zyu1000</t>
-  </si>
-  <si>
-    <t>A1000</t>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -416,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -466,16 +469,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Checkout ID(#183)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Checkout ID(#375)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>001</t>
+    <t>OA3</t>
   </si>
   <si>
     <t>A0</t>
@@ -419,7 +416,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -469,16 +466,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkout.xlsx
+++ b/admin/assets/file/export/checkout.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Checkout ID(#375)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>Checkout ID(#377)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -42,10 +42,28 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA3</t>
+    <t>CRV FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP104</t>
   </si>
   <si>
     <t>A0</t>
+  </si>
+  <si>
+    <t>CHR FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP108</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
   </si>
 </sst>
 </file>
@@ -408,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -416,9 +434,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -466,16 +484,50 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
